--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,108 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -163,91 +151,100 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>well</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>world</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>watch</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -727,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -777,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -827,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8484848484848485</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.5833333333333334</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.5789473684210527</v>
+        <v>0.52</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.5172413793103449</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,31 +1292,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6875</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.65</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.2926829268292683</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6428571428571429</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6159420289855072</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.1864406779661017</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,31 +1574,31 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6153846153846154</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.1851851851851852</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1619,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.1690140845070423</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1669,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1677,37 +1674,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.1520947176684882</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L23">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1719,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>931</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,37 +1724,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5454545454545454</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.1230769230769231</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5428571428571428</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.1052631578947368</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,10 +1827,10 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.09836065573770492</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -1869,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,16 +1895,16 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.08235294117647059</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1945,31 +1942,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.07801418439716312</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>260</v>
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1977,37 +1974,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4468085106382979</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>21</v>
       </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>26</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.06666666666666667</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>504</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,13 +2024,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3846153846153846</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2045,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.06349206349206349</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2069,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2077,13 +2074,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3478260869565217</v>
+        <v>0.375</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,16 +2095,16 @@
         <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.06086956521739131</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2119,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>108</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2127,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3461538461538461</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2145,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.05421686746987952</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L32">
         <v>36</v>
@@ -2169,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>628</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2177,13 +2174,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3214285714285715</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2195,219 +2192,123 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K33">
+        <v>0.05271084337349398</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>0.04379562043795621</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
         <v>0.02932551319648094</v>
       </c>
-      <c r="L33">
+      <c r="L36">
         <v>10</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="L34">
-        <v>18</v>
-      </c>
-      <c r="M34">
-        <v>18</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.02768166089965398</v>
-      </c>
-      <c r="L35">
-        <v>48</v>
-      </c>
-      <c r="M35">
-        <v>50</v>
-      </c>
-      <c r="N35">
-        <v>0.96</v>
-      </c>
-      <c r="O35">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>22</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.02693602693602693</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
       </c>
       <c r="M36">
         <v>10</v>
       </c>
       <c r="N36">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>64</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.01280409731113956</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2419,7 +2320,85 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>771</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.02476958525345622</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.02179487179487179</v>
+      </c>
+      <c r="L39">
+        <v>17</v>
+      </c>
+      <c r="M39">
+        <v>18</v>
+      </c>
+      <c r="N39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
